--- a/public/employees.xlsx
+++ b/public/employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Id</t>
   </si>
@@ -116,6 +116,9 @@
     <t>aungze@gmail.com</t>
   </si>
   <si>
+    <t>HR Department</t>
+  </si>
+  <si>
     <t>Naw Naw</t>
   </si>
   <si>
@@ -146,10 +149,211 @@
     <t>ayemi@gmail.com</t>
   </si>
   <si>
+    <t>Aung Hein Zaw</t>
+  </si>
+  <si>
+    <t>aungheinzaw@gmail.com</t>
+  </si>
+  <si>
+    <t>Aung Aung</t>
+  </si>
+  <si>
+    <t>aungaung@gmail.com</t>
+  </si>
+  <si>
     <t>Aung Hein</t>
   </si>
   <si>
     <t>aunghein@gmail.com</t>
+  </si>
+  <si>
+    <t>Su Zan</t>
+  </si>
+  <si>
+    <t>suzan@gmail.com</t>
+  </si>
+  <si>
+    <t>Doe Zak</t>
+  </si>
+  <si>
+    <t>doezak@gmail.com</t>
+  </si>
+  <si>
+    <t>asuye@gmail.com</t>
+  </si>
+  <si>
+    <t>Aung Nay Myo</t>
+  </si>
+  <si>
+    <t>aungnaymyo@gmail.com</t>
+  </si>
+  <si>
+    <t>Zaw Kun Zaw</t>
+  </si>
+  <si>
+    <t>zawkunzaw@gmail.com</t>
+  </si>
+  <si>
+    <t>Susi San</t>
+  </si>
+  <si>
+    <t>suzisan@gmail.com</t>
+  </si>
+  <si>
+    <t>Ve Good</t>
+  </si>
+  <si>
+    <t>vegood@gmail.com</t>
+  </si>
+  <si>
+    <t>Aung Zey Ye</t>
+  </si>
+  <si>
+    <t>aungzeyye@gmail.com</t>
+  </si>
+  <si>
+    <t>Naw Mu Lay</t>
+  </si>
+  <si>
+    <t>nawmulay@gmail.com</t>
+  </si>
+  <si>
+    <t>Pang Yaung Chel</t>
+  </si>
+  <si>
+    <t>pangyanunchel@gmail.com</t>
+  </si>
+  <si>
+    <t>Gwi Doe</t>
+  </si>
+  <si>
+    <t>gwidoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Fong Kya Shin</t>
+  </si>
+  <si>
+    <t>fonekyashin@gmail.com</t>
+  </si>
+  <si>
+    <t>Aye Mi San</t>
+  </si>
+  <si>
+    <t>ayemisan@gmail.com</t>
+  </si>
+  <si>
+    <t>Aung Hein Myo</t>
+  </si>
+  <si>
+    <t>aungheinmyo@gmail.com</t>
+  </si>
+  <si>
+    <t>Aung Hein Nay</t>
+  </si>
+  <si>
+    <t>aungheinnay@gmail.com</t>
+  </si>
+  <si>
+    <t>Nay Myo</t>
+  </si>
+  <si>
+    <t>naymyo@gmail.com</t>
+  </si>
+  <si>
+    <t>Aung Nay Zaw</t>
+  </si>
+  <si>
+    <t>aungnayzaw@gmail.com</t>
+  </si>
+  <si>
+    <t>Su Su Aung</t>
+  </si>
+  <si>
+    <t>susuaung@gmail.com</t>
+  </si>
+  <si>
+    <t>Zaw Zaw</t>
+  </si>
+  <si>
+    <t>zawzaw@gmail.com</t>
+  </si>
+  <si>
+    <t>Di Di</t>
+  </si>
+  <si>
+    <t>didi@gmail.com</t>
+  </si>
+  <si>
+    <t>Kyaw Kyaw</t>
+  </si>
+  <si>
+    <t>kyawkyaw@gmail.com</t>
+  </si>
+  <si>
+    <t>Kyaw Zaw</t>
+  </si>
+  <si>
+    <t>kyawzaw@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandar</t>
+  </si>
+  <si>
+    <t>sandar@gmail.com</t>
+  </si>
+  <si>
+    <t>Nwe Nwe</t>
+  </si>
+  <si>
+    <t>nwenwe@gmail.com</t>
+  </si>
+  <si>
+    <t>Aung Zey Ye Htut</t>
+  </si>
+  <si>
+    <t>aungzeyyehtut@gmail.com</t>
+  </si>
+  <si>
+    <t>Naw Mu Gyi</t>
+  </si>
+  <si>
+    <t>nawmugyi@gmail.com</t>
+  </si>
+  <si>
+    <t>Pang Thun Chel</t>
+  </si>
+  <si>
+    <t>pangthunchel@gmail.com</t>
+  </si>
+  <si>
+    <t>Gwet Doe</t>
+  </si>
+  <si>
+    <t>gwetdoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Nang Hein</t>
+  </si>
+  <si>
+    <t>nanghein@gmail.com</t>
+  </si>
+  <si>
+    <t>Aye Pa Pa</t>
+  </si>
+  <si>
+    <t>ayepapa@gmail.com</t>
+  </si>
+  <si>
+    <t>Doe Lay</t>
+  </si>
+  <si>
+    <t>doelay@gmail.com</t>
+  </si>
+  <si>
+    <t>Hein Ko Aung</t>
+  </si>
+  <si>
+    <t>heinkoaung@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -489,7 +693,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +729,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -551,7 +755,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -577,7 +781,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -603,7 +807,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -629,7 +833,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -655,7 +859,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -681,7 +885,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -707,7 +911,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -733,7 +937,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -759,7 +963,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -780,15 +984,15 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -797,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>95009282281</v>
@@ -806,15 +1010,15 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -823,7 +1027,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>95982300211</v>
@@ -832,15 +1036,15 @@
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -849,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>95970229281</v>
@@ -858,15 +1062,15 @@
         <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -875,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>9597713381</v>
@@ -884,15 +1088,15 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -901,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>959772392281</v>
@@ -910,15 +1114,15 @@
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -927,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>959232329002</v>
@@ -936,7 +1140,891 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>95977180281</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>95977232361</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20">
+        <v>9029322281</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>95979232281</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>171</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>95973232981</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>9597712381</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24">
+        <v>95977182281</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>95971028921</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>95982722221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>95979002281</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <v>95009282281</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>95982300211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>95970229281</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31">
+        <v>9597713381</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>959772392281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <v>959232329002</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34">
+        <v>959232329002</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>184</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <v>95977180281</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>185</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36">
+        <v>95977232361</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37">
+        <v>9029322281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38">
+        <v>95979232281</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39">
+        <v>95973232981</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>189</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40">
+        <v>9597712381</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41">
+        <v>95977182281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>191</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42">
+        <v>95971028921</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43">
+        <v>95982722221</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>193</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44">
+        <v>95979002281</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>194</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>95009282281</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>195</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46">
+        <v>95982300211</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>196</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47">
+        <v>95970229281</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>197</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48">
+        <v>9597713381</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>198</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49">
+        <v>959772392281</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50">
+        <v>959232329002</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51">
+        <v>959232329002</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
